--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osaleem\Desktop\Ai Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{CA07DDD2-5432-4D55-B82C-B67946577156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A6AE7A-250D-47B6-BDAB-61634105887B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907FFD9E-AAAA-42DA-9ABB-A68E99E05C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2820" windowWidth="29040" windowHeight="15840" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -182,22 +182,7 @@
     <t>Hammoud, Helal Mustafa</t>
   </si>
   <si>
-    <t>LP21</t>
-  </si>
-  <si>
     <t>HHammoud@kockw.com</t>
-  </si>
-  <si>
-    <t>LP01</t>
-  </si>
-  <si>
-    <t>LP01-Planning Group</t>
-  </si>
-  <si>
-    <t>LP11</t>
-  </si>
-  <si>
-    <t>LP11-Strategic Planning Team</t>
   </si>
   <si>
     <t>Systems Analyst</t>
@@ -264,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,26 +375,26 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,11 +766,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
@@ -808,7 +793,7 @@
     <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -922,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -977,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1042,10 +1027,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>10736</v>
@@ -1061,11 +1046,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
+      <c r="K5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>36</v>
@@ -1073,11 +1058,11 @@
       <c r="N5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>53</v>
+      <c r="O5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1086,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6">
         <v>87700</v>
@@ -1131,10 +1116,10 @@
         <v>37</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
@@ -1146,18 +1131,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>80600</v>
@@ -1166,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H7" s="9">
         <v>25</v>
@@ -1203,18 +1188,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9">
         <v>83472</v>
@@ -1223,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" s="9">
         <v>20</v>
@@ -1260,18 +1245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="29.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9">
         <v>28898</v>
@@ -1288,22 +1273,22 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907FFD9E-AAAA-42DA-9ABB-A68E99E05C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419028C-4001-1B41-8958-75B779480FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -182,9 +182,24 @@
     <t>Hammoud, Helal Mustafa</t>
   </si>
   <si>
+    <t>LP21</t>
+  </si>
+  <si>
     <t>HHammoud@kockw.com</t>
   </si>
   <si>
+    <t>LP01</t>
+  </si>
+  <si>
+    <t>LP01-Planning Group</t>
+  </si>
+  <si>
+    <t>LP11</t>
+  </si>
+  <si>
+    <t>LP11-Strategic Planning Team</t>
+  </si>
+  <si>
     <t>Systems Analyst</t>
   </si>
   <si>
@@ -243,6 +258,15 @@
   </si>
   <si>
     <t>EF31-Strategic Collaboration &amp; Contracts Team</t>
+  </si>
+  <si>
+    <t>System Analyst</t>
+  </si>
+  <si>
+    <t>Hammoud, Abbas Mustafa</t>
+  </si>
+  <si>
+    <t>AHammoud@kockw.com</t>
   </si>
 </sst>
 </file>
@@ -292,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -368,12 +392,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,6 +428,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -764,36 +801,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -907,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -962,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1019,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1027,10 +1064,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>10736</v>
@@ -1046,11 +1083,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>35</v>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>36</v>
@@ -1058,11 +1095,11 @@
       <c r="N5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>38</v>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1071,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>87700</v>
@@ -1116,10 +1153,10 @@
         <v>37</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
@@ -1131,18 +1168,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E7" s="9">
         <v>80600</v>
@@ -1151,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H7" s="9">
         <v>25</v>
@@ -1188,18 +1225,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9">
         <v>83472</v>
@@ -1208,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H8" s="9">
         <v>20</v>
@@ -1245,18 +1282,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9" s="9">
         <v>28898</v>
@@ -1273,22 +1310,22 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="N9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="P9" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -1297,6 +1334,63 @@
         <v>0</v>
       </c>
       <c r="S9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="9">
+        <v>18234</v>
+      </c>
+      <c r="F10" s="9">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="9">
+        <v>49</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1311,10 +1405,11 @@
     <hyperlink ref="D7" r:id="rId6" xr:uid="{E40DA756-E4BE-4D2E-BD0A-ADA8ECDE6392}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{7C9F1355-A39B-443F-8764-7872529F38D0}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{7C75CF6E-315D-430D-9C1A-EEC72C381530}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{C62E6CB8-71F9-9D40-8A3D-9EAA863A49E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419028C-4001-1B41-8958-75B779480FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD884F8-9266-794D-AA12-C92C9804639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -260,13 +260,13 @@
     <t>EF31-Strategic Collaboration &amp; Contracts Team</t>
   </si>
   <si>
-    <t>System Analyst</t>
-  </si>
-  <si>
     <t>Hammoud, Abbas Mustafa</t>
   </si>
   <si>
     <t>AHammoud@kockw.com</t>
+  </si>
+  <si>
+    <t>System Analyst 1234</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1339,16 +1339,16 @@
     </row>
     <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="9">
         <v>18234</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD884F8-9266-794D-AA12-C92C9804639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E49E05E-773E-6C4F-A868-E52733CC278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -182,22 +182,7 @@
     <t>Hammoud, Helal Mustafa</t>
   </si>
   <si>
-    <t>LP21</t>
-  </si>
-  <si>
     <t>HHammoud@kockw.com</t>
-  </si>
-  <si>
-    <t>LP01</t>
-  </si>
-  <si>
-    <t>LP01-Planning Group</t>
-  </si>
-  <si>
-    <t>LP11</t>
-  </si>
-  <si>
-    <t>LP11-Strategic Planning Team</t>
   </si>
   <si>
     <t>Systems Analyst</t>
@@ -273,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +291,13 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,6 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,7 +797,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1064,10 +1057,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>10736</v>
@@ -1083,11 +1076,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
+      <c r="K5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>36</v>
@@ -1096,10 +1089,10 @@
         <v>37</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1108,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6">
         <v>87700</v>
@@ -1153,10 +1146,10 @@
         <v>37</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="6">
         <v>0</v>
@@ -1170,16 +1163,16 @@
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9">
         <v>80600</v>
@@ -1188,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H7" s="9">
         <v>25</v>
@@ -1227,16 +1220,16 @@
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" s="9">
         <v>83472</v>
@@ -1245,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" s="9">
         <v>20</v>
@@ -1284,16 +1277,16 @@
     </row>
     <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9">
         <v>28898</v>
@@ -1310,22 +1303,22 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -1339,16 +1332,16 @@
     </row>
     <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" s="9">
         <v>18234</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E49E05E-773E-6C4F-A868-E52733CC278B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF619C5-EB0F-0B46-BE62-AF52C087B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -251,7 +251,10 @@
     <t>AHammoud@kockw.com</t>
   </si>
   <si>
-    <t>System Analyst 1234</t>
+    <t>System Analyst</t>
+  </si>
+  <si>
+    <t>Syria</t>
   </si>
 </sst>
 </file>
@@ -797,7 +800,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1360,7 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="15" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>34</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF619C5-EB0F-0B46-BE62-AF52C087B3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FF1BA-7950-D041-9737-A45E279C470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>Syria</t>
+  </si>
+  <si>
+    <t>Majeed, Jincy Karappamveettil</t>
+  </si>
+  <si>
+    <t>LT52</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>LT52 - Services &amp; Call Center Team 123</t>
+  </si>
+  <si>
+    <t>Jmajeed@kockw.com</t>
   </si>
 </sst>
 </file>
@@ -797,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1390,6 +1405,63 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="9">
+        <v>18450</v>
+      </c>
+      <c r="F11" s="9">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="9">
+        <v>34</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1402,10 +1474,11 @@
     <hyperlink ref="D8" r:id="rId7" xr:uid="{7C9F1355-A39B-443F-8764-7872529F38D0}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{7C75CF6E-315D-430D-9C1A-EEC72C381530}"/>
     <hyperlink ref="D10" r:id="rId9" xr:uid="{C62E6CB8-71F9-9D40-8A3D-9EAA863A49E4}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{F77152CD-82E1-B84F-89E7-F8A43D64C2DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FF1BA-7950-D041-9737-A45E279C470A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8327A9-A4DE-0F49-A614-69196414F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1356,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>70</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8327A9-A4DE-0F49-A614-69196414F318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA78A86-DBE7-F44B-A509-9D089203945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Jmajeed@kockw.com</t>
+  </si>
+  <si>
+    <t>LT52 - Services &amp; Call Center Team</t>
   </si>
 </sst>
 </file>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1390,10 +1393,10 @@
         <v>37</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA78A86-DBE7-F44B-A509-9D089203945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98DF19-6389-214A-9723-AF5A0CB365A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Jmajeed@kockw.com</t>
-  </si>
-  <si>
-    <t>LT52 - Services &amp; Call Center Team</t>
   </si>
 </sst>
 </file>
@@ -817,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1356,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>70</v>
@@ -1393,10 +1390,10 @@
         <v>37</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98DF19-6389-214A-9723-AF5A0CB365A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFD09A5-945F-F349-A22A-52ACBD944431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>JOB_TITLE</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Jmajeed@kockw.com</t>
+  </si>
+  <si>
+    <t>LT52 - Services &amp; Call Center Team - New Department</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -445,6 +448,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -815,7 +819,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1377,9 @@
       <c r="H10" s="9">
         <v>49</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="18">
+        <v>27808</v>
+      </c>
       <c r="J10" s="15" t="s">
         <v>72</v>
       </c>
@@ -1390,10 +1396,10 @@
         <v>37</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFD09A5-945F-F349-A22A-52ACBD944431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD49E5-AEFC-3341-9125-5855092F3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1360,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>70</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD49E5-AEFC-3341-9125-5855092F3169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8994A36-088F-4FE7-BA29-917708D245B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -224,27 +213,15 @@
     <t>Mustafa, Khaleel Mohammad</t>
   </si>
   <si>
-    <t>EF31</t>
-  </si>
-  <si>
     <t>KMustafa@kockw.com</t>
   </si>
   <si>
-    <t>EF01</t>
-  </si>
-  <si>
-    <t>EF01-New Venture Group</t>
-  </si>
-  <si>
     <t>EX01</t>
   </si>
   <si>
     <t>EX01-EXPLORATION &amp; DRILLING DIRECTORATE ADMIN.</t>
   </si>
   <si>
-    <t>EF31-Strategic Collaboration &amp; Contracts Team</t>
-  </si>
-  <si>
     <t>Hammoud, Abbas Mustafa</t>
   </si>
   <si>
@@ -273,13 +250,25 @@
   </si>
   <si>
     <t>LT52 - Services &amp; Call Center Team - New Department</t>
+  </si>
+  <si>
+    <t>ET71</t>
+  </si>
+  <si>
+    <t>ET01</t>
+  </si>
+  <si>
+    <t>ET01-New Venture Group</t>
+  </si>
+  <si>
+    <t>ET71-Strategic Collaboration &amp; Contracts Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,34 +807,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15.95">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -959,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15.95">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1014,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15.95">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15.95">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.95">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1183,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15.95">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1240,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="15.95">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="32.1">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -1305,10 +1294,10 @@
         <v>61</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E9" s="9">
         <v>28898</v>
@@ -1325,22 +1314,22 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="O9" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
@@ -1352,18 +1341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="9">
         <v>18234</v>
@@ -1381,7 +1370,7 @@
         <v>27808</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>34</v>
@@ -1396,11 +1385,11 @@
         <v>37</v>
       </c>
       <c r="O10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
@@ -1411,18 +1400,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="E11" s="9">
         <v>18450</v>
@@ -1438,7 +1427,7 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>34</v>
@@ -1453,10 +1442,10 @@
         <v>37</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="9">
         <v>0</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8994A36-088F-4FE7-BA29-917708D245B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57682B0A-10A4-48C1-B105-771F5B1D7793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1332,10 +1332,10 @@
         <v>78</v>
       </c>
       <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
         <v>1</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57682B0A-10A4-48C1-B105-771F5B1D7793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7678FDC-C7B3-40E5-959F-231C68E1D64C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
@@ -808,7 +808,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
         <v>1</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19">

--- a/UsersContext.xlsx
+++ b/UsersContext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhammoud\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbashammoud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7678FDC-C7B3-40E5-959F-231C68E1D64C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795CF0D-1102-734B-ABAC-58057282F8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="21660" xr2:uid="{349EAB45-FE16-4D01-8560-BA6C1F7AFF04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,34 +807,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21D82D-8F9C-4A28-A85E-13CDA3D7BF58}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.95">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.95">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.95">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.95">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.95">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.95">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>54</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.95">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="32.1">
+    <row r="9" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
@@ -1332,16 +1332,16 @@
         <v>78</v>
       </c>
       <c r="Q9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
       </c>
       <c r="S9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
